--- a/ProjectManagement/Ships.xlsx
+++ b/ProjectManagement/Ships.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Digital Archive\Game Development\Active\SpaceUnknown\ProjectManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB94850C-215E-4F29-968F-A0322FA009F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AAF51EB-C04D-48B7-A9A5-FE6F6F996315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BEDA9127-5E7F-4B15-9FE0-DDF043E0E148}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Name</t>
   </si>
@@ -53,9 +53,6 @@
     <t xml:space="preserve">Science </t>
   </si>
   <si>
-    <t>Slots</t>
-  </si>
-  <si>
     <t>Cargo Space (t)</t>
   </si>
   <si>
@@ -96,13 +93,25 @@
   </si>
   <si>
     <t>Reduce fuel consumption by 10%.</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>SLOTS</t>
+  </si>
+  <si>
+    <t>RECIPE</t>
+  </si>
+  <si>
+    <t>Venigen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,6 +121,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -143,7 +160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -152,11 +169,20 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -182,19 +208,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6FEB2121-7A05-45CF-B060-A377F5C02C18}" name="Table1" displayName="Table1" ref="A2:J7" totalsRowShown="0">
-  <autoFilter ref="A2:J7" xr:uid="{6FEB2121-7A05-45CF-B060-A377F5C02C18}"/>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{FFCC2355-E4EE-481E-98A0-1102DD5CA9A3}" name="Name" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6FEB2121-7A05-45CF-B060-A377F5C02C18}" name="Table1" displayName="Table1" ref="A2:L7" totalsRowShown="0">
+  <autoFilter ref="A2:L7" xr:uid="{6FEB2121-7A05-45CF-B060-A377F5C02C18}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{FFCC2355-E4EE-481E-98A0-1102DD5CA9A3}" name="Name" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{4770588D-5EDD-4D5C-B0F0-3F6FEB342485}" name="Unique"/>
     <tableColumn id="3" xr3:uid="{AD75260C-44B9-43EB-BFDA-A57C787F7698}" name="Cargo Space (t)"/>
     <tableColumn id="4" xr3:uid="{A84D8404-6D1C-458D-B4B5-B3A7DBB24610}" name="Mass (t)"/>
     <tableColumn id="8" xr3:uid="{1496CFD5-444D-4CDC-B6A6-555F138A066F}" name="Fuel Tank"/>
-    <tableColumn id="9" xr3:uid="{6D0BA0FA-8CAD-4AD3-B980-42D62AB120DB}" name="Column1" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{6D0BA0FA-8CAD-4AD3-B980-42D62AB120DB}" name="Column1" dataDxfId="1"/>
     <tableColumn id="5" xr3:uid="{7E771186-A81D-464E-B389-3E3636203AD2}" name="Industrial"/>
     <tableColumn id="11" xr3:uid="{9376F4FB-E402-479C-B8ED-E66E0FFF6770}" name="Heavy Industrial"/>
     <tableColumn id="6" xr3:uid="{89FF0D92-EBF6-4275-B0D6-FA750D0A582F}" name="Structural"/>
     <tableColumn id="7" xr3:uid="{91A5AB42-E349-465F-9437-0446652E9F37}" name="Science "/>
+    <tableColumn id="10" xr3:uid="{0A18AC80-A761-466D-AB8E-5DC1951E185C}" name="Column2" dataDxfId="0"/>
+    <tableColumn id="12" xr3:uid="{8E882FE3-9CFA-407B-AD52-D6D3544528EE}" name="Venigen"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -497,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07F1A7B1-2AED-43D2-A412-380A2E4306DA}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,14 +543,18 @@
     <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.7109375" customWidth="1"/>
+    <col min="11" max="11" width="2.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G1" t="s">
-        <v>5</v>
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -530,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
         <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
       </c>
       <c r="G2" t="s">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
         <v>2</v>
@@ -553,13 +585,19 @@
       <c r="J2" t="s">
         <v>4</v>
       </c>
+      <c r="K2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>20</v>
@@ -583,13 +621,14 @@
       <c r="J3">
         <v>1</v>
       </c>
+      <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4">
         <v>50</v>
@@ -613,13 +652,14 @@
       <c r="J4">
         <v>0</v>
       </c>
+      <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <v>10</v>
@@ -643,10 +683,11 @@
       <c r="J5">
         <v>1</v>
       </c>
+      <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <v>100</v>
@@ -670,13 +711,14 @@
       <c r="J6">
         <v>0</v>
       </c>
+      <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
         <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
       </c>
       <c r="C7">
         <v>300</v>
@@ -700,12 +742,14 @@
       <c r="J7">
         <v>3</v>
       </c>
+      <c r="K7" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/ProjectManagement/Ships.xlsx
+++ b/ProjectManagement/Ships.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Digital Archive\Game Development\Active\SpaceUnknown\ProjectManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AAF51EB-C04D-48B7-A9A5-FE6F6F996315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C900F7-C5F8-49BB-9F29-02FA4A5A9686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BEDA9127-5E7F-4B15-9FE0-DDF043E0E148}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Name</t>
   </si>
@@ -99,12 +99,6 @@
   </si>
   <si>
     <t>SLOTS</t>
-  </si>
-  <si>
-    <t>RECIPE</t>
-  </si>
-  <si>
-    <t>Venigen</t>
   </si>
 </sst>
 </file>
@@ -208,9 +202,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6FEB2121-7A05-45CF-B060-A377F5C02C18}" name="Table1" displayName="Table1" ref="A2:L7" totalsRowShown="0">
-  <autoFilter ref="A2:L7" xr:uid="{6FEB2121-7A05-45CF-B060-A377F5C02C18}"/>
-  <tableColumns count="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6FEB2121-7A05-45CF-B060-A377F5C02C18}" name="Table1" displayName="Table1" ref="A2:K7" totalsRowShown="0">
+  <autoFilter ref="A2:K7" xr:uid="{6FEB2121-7A05-45CF-B060-A377F5C02C18}"/>
+  <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{FFCC2355-E4EE-481E-98A0-1102DD5CA9A3}" name="Name" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{4770588D-5EDD-4D5C-B0F0-3F6FEB342485}" name="Unique"/>
     <tableColumn id="3" xr3:uid="{AD75260C-44B9-43EB-BFDA-A57C787F7698}" name="Cargo Space (t)"/>
@@ -222,7 +216,6 @@
     <tableColumn id="6" xr3:uid="{89FF0D92-EBF6-4275-B0D6-FA750D0A582F}" name="Structural"/>
     <tableColumn id="7" xr3:uid="{91A5AB42-E349-465F-9437-0446652E9F37}" name="Science "/>
     <tableColumn id="10" xr3:uid="{0A18AC80-A761-466D-AB8E-5DC1951E185C}" name="Column2" dataDxfId="0"/>
-    <tableColumn id="12" xr3:uid="{8E882FE3-9CFA-407B-AD52-D6D3544528EE}" name="Venigen"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -525,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07F1A7B1-2AED-43D2-A412-380A2E4306DA}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,15 +539,12 @@
     <col min="11" max="11" width="2.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -588,11 +578,8 @@
       <c r="K2" t="s">
         <v>19</v>
       </c>
-      <c r="L2" t="s">
-        <v>22</v>
-      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -623,7 +610,7 @@
       </c>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -654,7 +641,7 @@
       </c>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -685,7 +672,7 @@
       </c>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -713,7 +700,7 @@
       </c>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
